--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61CEC6E-E517-48F6-921A-2218FFAE5861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37448BDB-AF53-4B52-BFD0-2F430966DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>प्रथम तुला वंदितो</t>
+  </si>
+  <si>
+    <t>AKKD</t>
+  </si>
+  <si>
+    <t>Achuytam Keshavam</t>
+  </si>
+  <si>
+    <t>अच्युतं केशवं</t>
   </si>
 </sst>
 </file>
@@ -421,13 +430,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F38401-C3BC-42ED-B8F9-C248FBBA923A}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -441,6 +454,20 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFAA5F6-4027-480A-A433-36AB31EAAB5F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37448BDB-AF53-4B52-BFD0-2F430966DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C85D5E-3D4C-4EEF-8274-B1FE1F186063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
-    <sheet name="HN" sheetId="2" r:id="rId2"/>
+    <sheet name="HI" sheetId="2" r:id="rId2"/>
     <sheet name="EN" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C85D5E-3D4C-4EEF-8274-B1FE1F186063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D8798-872F-446B-AFA2-345D552E5A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,10 +53,10 @@
     <t>AKKD</t>
   </si>
   <si>
-    <t>Achuytam Keshavam</t>
-  </si>
-  <si>
     <t>अच्युतं केशवं</t>
+  </si>
+  <si>
+    <t>Achyutam Keshavam</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,10 +464,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742D8798-872F-446B-AFA2-345D552E5A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D8332-D07D-4E48-9D38-A323D8978530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
     <sheet name="HI" sheetId="2" r:id="rId2"/>
-    <sheet name="EN" sheetId="3" r:id="rId3"/>
+    <sheet name="TA" sheetId="4" r:id="rId3"/>
+    <sheet name="EN" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -57,6 +58,15 @@
   </si>
   <si>
     <t>Achyutam Keshavam</t>
+  </si>
+  <si>
+    <t>ஞான நிர்மலாமே</t>
+  </si>
+  <si>
+    <t>Gnana Nirmalame</t>
+  </si>
+  <si>
+    <t>GNNM</t>
   </si>
 </sst>
 </file>
@@ -432,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F38401-C3BC-42ED-B8F9-C248FBBA923A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,6 +486,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA45175-EA5C-40EE-A095-9E63EE3B555D}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFAA5F6-4027-480A-A433-36AB31EAAB5F}">
   <dimension ref="A1:D1"/>
   <sheetViews>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753D8332-D07D-4E48-9D38-A323D8978530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D0812-C9D3-4F09-AF77-BAED11427056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,13 +60,13 @@
     <t>Achyutam Keshavam</t>
   </si>
   <si>
-    <t>ஞான நிர்மலாமே</t>
-  </si>
-  <si>
     <t>Gnana Nirmalame</t>
   </si>
   <si>
     <t>GNNM</t>
+  </si>
+  <si>
+    <t>ஞான நிர்மலமே</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,12 +443,12 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -490,10 +490,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -514,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahajayoga\SY Bhajan Sangraha WebApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2D0812-C9D3-4F09-AF77-BAED11427056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16DA427-DCF6-4645-90E1-1EA4E60683E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MR" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Name (Roman)</t>
   </si>
   <si>
-    <t>Name (Orig)</t>
-  </si>
-  <si>
     <t>प्रथम तुला वंदितो</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   </si>
   <si>
     <t>ஞான நிர்மலமே</t>
+  </si>
+  <si>
+    <t>Name (Original)</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -443,13 +443,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
@@ -463,7 +463,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -471,13 +471,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA45175-EA5C-40EE-A095-9E63EE3B555D}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFAA5F6-4027-480A-A433-36AB31EAAB5F}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
